--- a/Acedemic Dishonesty - GitHub/GitTest.xlsx
+++ b/Acedemic Dishonesty - GitHub/GitTest.xlsx
@@ -5,19 +5,19 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpichardo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpichardo/Documents/GitHub/Research-Papers/Acedemic Dishonesty - GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10FAB9B-AF68-BC41-915C-759B5AC006BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE1D09C-9C38-B94F-9CE2-2972161BC99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="580" windowWidth="28040" windowHeight="16540" xr2:uid="{03CCA54B-6A87-BA4F-87B2-0800CDDB09CB}"/>
+    <workbookView xWindow="7160" yWindow="500" windowWidth="21640" windowHeight="16540" xr2:uid="{03CCA54B-6A87-BA4F-87B2-0800CDDB09CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="11" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Repo Promp</t>
   </si>
@@ -119,13 +119,103 @@
   </si>
   <si>
     <t>Values</t>
+  </si>
+  <si>
+    <t>Frequency per Search</t>
+  </si>
+  <si>
+    <t>Repo Links</t>
+  </si>
+  <si>
+    <t>https://github.com/joshc-garcia/CS313E-Assignments</t>
+  </si>
+  <si>
+    <t>https://github.com/lancefeig/cs313e_finalproject</t>
+  </si>
+  <si>
+    <t>https://github.com/pranavkpradeep/CS313E</t>
+  </si>
+  <si>
+    <t>https://github.com/Minouneshan/CS313E-UTAustin</t>
+  </si>
+  <si>
+    <t>https://github.com/halil-hamscho/CS313E</t>
+  </si>
+  <si>
+    <t>https://github.com/sashi8a/CS313E</t>
+  </si>
+  <si>
+    <t>https://github.com/austinjp17/cs313E</t>
+  </si>
+  <si>
+    <t>https://github.com/raqmejtru/CS313E_Elements_of_Software_Design</t>
+  </si>
+  <si>
+    <t>https://github.com/tylersmed/cs313</t>
+  </si>
+  <si>
+    <t>https://github.com/Julian-Wearden-UT/Fall2021_CS313E_Projects</t>
+  </si>
+  <si>
+    <t>https://github.com/kellyhyun/cs313e</t>
+  </si>
+  <si>
+    <t>https://github.com/makutexas/Fall22-CS313E-Assignments</t>
+  </si>
+  <si>
+    <t>https://github.com/ck27924/CS313E-Work</t>
+  </si>
+  <si>
+    <t>https://github.com/enya126/Python-2---software-design</t>
+  </si>
+  <si>
+    <t>https://github.com/uploadtigris/CS313E_Readings</t>
+  </si>
+  <si>
+    <t>https://github.com/morgan-handojo/CS-Work-Fall-2023</t>
+  </si>
+  <si>
+    <t>https://github.com/AmberEtana/Elements-of-Software-Design</t>
+  </si>
+  <si>
+    <t>https://github.com/carlaigonzalez/CS313E</t>
+  </si>
+  <si>
+    <t>https://github.com/ankitasumeet17/CS313E-Elements-of-Software-Design</t>
+  </si>
+  <si>
+    <t>https://github.com/FelixLuciano/Elements-of-Software-Design</t>
+  </si>
+  <si>
+    <t>https://github.com/jpkrajewski/software-design-patterns</t>
+  </si>
+  <si>
+    <t>https://github.com/maxedout2/CS-313-Elements-of-Software-Design</t>
+  </si>
+  <si>
+    <t>https://github.com/jenny-fotso/Elements-of-Software-Design</t>
+  </si>
+  <si>
+    <t>https://github.com/ashlilii/CS313E</t>
+  </si>
+  <si>
+    <t>https://github.com/alicianireland/CS313E</t>
+  </si>
+  <si>
+    <t>https://github.com/Hugo-cruz/design-patterns-python</t>
+  </si>
+  <si>
+    <t>https://github.com/pranj2000/Python-Programming-Projects</t>
+  </si>
+  <si>
+    <t>https://github.com/OCoderO/Elements-of-Software-Design---UT-Austin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,16 +223,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,22 +262,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -900,9 +1035,158 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3108168562933017E-2"/>
+          <c:y val="3.6243335471309618E-2"/>
+          <c:w val="0.75059803772939104"/>
+          <c:h val="0.83761414413656476"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -912,7 +1196,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$35</c:f>
+              <c:f>Sheet1!$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -933,7 +1217,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$36:$C$44</c:f>
+              <c:f>Sheet1!$C$35:$C$43</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -968,7 +1252,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$36:$D$44</c:f>
+              <c:f>Sheet1!$D$35:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -979,16 +1263,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1004,7 +1288,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EC27-E040-8AE8-9F75A7C4D831}"/>
+              <c16:uniqueId val="{00000000-A017-994D-9082-119989585B79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,13 +1300,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="31"/>
-        <c:axId val="519215376"/>
-        <c:axId val="519217024"/>
+        <c:gapWidth val="288"/>
+        <c:overlap val="-84"/>
+        <c:axId val="2100746224"/>
+        <c:axId val="2100905680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="519215376"/>
+        <c:axId val="2100746224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519217024"/>
+        <c:crossAx val="2100905680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1073,7 +1357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519217024"/>
+        <c:axId val="2100905680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519215376"/>
+        <c:crossAx val="2100746224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1774,23 +2058,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1381402</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>306307</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>199190</xdr:rowOff>
+      <xdr:rowOff>91012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>287866</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>199190</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>200401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B548EEA-6A3F-28B9-43D0-0DD93F3D8345}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{973EADDD-C6F3-F662-6933-650C323529F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,19 +2096,54 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45342.040776620372" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{932FE0BC-E8DD-4A47-968D-B1F06DAAC360}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45351.810266782406" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{49C98BB0-F271-2847-A6D6-A3C17073CCCE}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D1:L31" sheet="Sheet1"/>
+    <worksheetSource name="Table3"/>
   </cacheSource>
-  <cacheFields count="9">
+  <cacheFields count="13">
+    <cacheField name="Repo Promp" numFmtId="0">
+      <sharedItems count="2">
+        <s v="CS313E"/>
+        <s v="Elements of Software Design"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-09-05T00:00:00" maxDate="2024-02-09T00:00:00" count="28">
+        <d v="2024-02-08T00:00:00"/>
+        <d v="2023-11-26T00:00:00"/>
+        <d v="2023-09-18T00:00:00"/>
+        <d v="2023-09-06T00:00:00"/>
+        <d v="2023-08-31T00:00:00"/>
+        <d v="2023-08-22T00:00:00"/>
+        <d v="2023-07-25T00:00:00"/>
+        <d v="2023-07-18T00:00:00"/>
+        <d v="2023-05-18T00:00:00"/>
+        <d v="2023-04-22T00:00:00"/>
+        <d v="2023-03-05T00:00:00"/>
+        <d v="2022-11-26T00:00:00"/>
+        <d v="2022-10-04T00:00:00"/>
+        <d v="2022-10-02T00:00:00"/>
+        <d v="2022-03-05T00:00:00"/>
+        <d v="2024-01-31T00:00:00"/>
+        <d v="2023-03-21T00:00:00"/>
+        <d v="2023-03-20T00:00:00"/>
+        <d v="2023-01-25T00:00:00"/>
+        <d v="2022-12-31T00:00:00"/>
+        <d v="2022-10-03T00:00:00"/>
+        <d v="2022-09-20T00:00:00"/>
+        <d v="2022-03-04T00:00:00"/>
+        <d v="2021-12-30T00:00:00"/>
+        <d v="2021-12-26T00:00:00"/>
+        <d v="2021-11-24T00:00:00"/>
+        <d v="2021-09-21T00:00:00"/>
+        <d v="2021-09-05T00:00:00"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="01 Number Spiral" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="02 Employee Salaries" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="1"/>
-        <n v="0"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="03 Working Hard" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
@@ -1833,7 +2152,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="06 Expression Tree" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="07 BST Cipher" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
@@ -1847,6 +2166,20 @@
     <cacheField name="10 Topological Sort" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
+    <cacheField name="Frequency per Search" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7" count="7">
+        <n v="2"/>
+        <n v="0"/>
+        <n v="4"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="5"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Repo Links" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1859,18 +2192,22 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
   <r>
-    <n v="1"/>
     <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="https://github.com/joshc-garcia/CS313E-Assignments"/>
   </r>
   <r>
-    <n v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -1879,330 +2216,446 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="https://github.com/lancefeig/cs313e_finalproject"/>
   </r>
   <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="https://github.com/pranavkpradeep/CS313E"/>
   </r>
   <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="https://github.com/uploadtigris/CS313E_Readings"/>
   </r>
   <r>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <s v="https://github.com/Minouneshan/CS313E-UTAustin"/>
   </r>
   <r>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="https://github.com/halil-hamscho/CS313E"/>
   </r>
   <r>
-    <n v="1"/>
     <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="https://github.com/sashi8a/CS313E"/>
   </r>
   <r>
-    <n v="1"/>
     <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <s v="https://github.com/austinjp17/cs313E"/>
   </r>
   <r>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <s v="https://github.com/raqmejtru/CS313E_Elements_of_Software_Design"/>
   </r>
   <r>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="https://github.com/tylersmed/cs313"/>
   </r>
   <r>
-    <n v="1"/>
     <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <s v="https://github.com/Julian-Wearden-UT/Fall2021_CS313E_Projects"/>
   </r>
   <r>
-    <n v="1"/>
     <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="https://github.com/makutexas/Fall22-CS313E-Assignments"/>
   </r>
   <r>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="https://github.com/kellyhyun/cs313e"/>
   </r>
   <r>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="https://github.com/ck27924/CS313E-Work"/>
   </r>
   <r>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <s v="https://github.com/enya126/Python-2---software-design"/>
   </r>
   <r>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <s v="https://github.com/morgan-handojo/CS-Work-Fall-2023"/>
   </r>
   <r>
-    <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <s v="https://github.com/raqmejtru/CS313E_Elements_of_Software_Design"/>
   </r>
   <r>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <s v="https://github.com/AmberEtana/Elements-of-Software-Design"/>
   </r>
   <r>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="https://github.com/carlaigonzalez/CS313E"/>
   </r>
   <r>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="https://github.com/ankitasumeet17/CS313E-Elements-of-Software-Design"/>
   </r>
   <r>
-    <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="https://github.com/FelixLuciano/Elements-of-Software-Design"/>
   </r>
   <r>
-    <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="https://github.com/jpkrajewski/software-design-patterns"/>
   </r>
   <r>
-    <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="https://github.com/maxedout2/CS-313-Elements-of-Software-Design"/>
   </r>
   <r>
-    <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <s v="https://github.com/enya126/Python-2---software-design"/>
   </r>
   <r>
-    <n v="1"/>
     <x v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="https://github.com/alicianireland/CS313E"/>
   </r>
   <r>
-    <n v="1"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="23"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <s v="https://github.com/jenny-fotso/Elements-of-Software-Design"/>
   </r>
   <r>
-    <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="24"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <s v="https://github.com/ashlilii/CS313E"/>
   </r>
   <r>
-    <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="https://github.com/Hugo-cruz/design-patterns-python"/>
   </r>
   <r>
-    <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="https://github.com/pranj2000/Python-Programming-Projects"/>
   </r>
   <r>
-    <n v="1"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="27"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <s v="https://github.com/OCoderO/Elements-of-Software-Design---UT-Austin"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39A20FD6-2BBA-5349-9926-4AC3F21D6C62}" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="C35:D44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9BFA917-7D02-3041-A129-7EBB9380B1B5}" name="PivotTable2" cacheId="11" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="C34:D43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0">
       <items count="3">
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -2210,6 +2663,21 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="-2"/>
@@ -2247,18 +2715,18 @@
     <i/>
   </colItems>
   <dataFields count="9">
-    <dataField name="Sum of 01 Number Spiral" fld="0" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 02 Employee Salaries" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 03 Working Hard" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 05 Josephus Problem" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 06 Expression Tree" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 07 BST Cipher" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 08 BST and VAL Tree" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 09 Image Bucket Fill" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 10 Topological Sort" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 01 Number Spiral" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 02 Employee Salaries" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 03 Working Hard" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 05 Josephus Problem" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 06 Expression Tree" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 07 BST Cipher" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 08 BST and VAL Tree" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 09 Image Bucket Fill" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 10 Topological Sort" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="11">
-    <chartFormat chart="0" format="3" series="1">
+  <chartFormats count="9">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2267,7 +2735,16 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2276,7 +2753,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2285,7 +2762,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
+    <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2294,7 +2771,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
+    <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2303,7 +2780,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
+    <chartFormat chart="0" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2312,7 +2789,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+    <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2321,7 +2798,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
+    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2330,35 +2807,8 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2368,6 +2818,44 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4C75C92A-DDEB-9C4D-9474-4802BDBDDA18}" name="Table3" displayName="Table3" ref="A1:M31" totalsRowShown="0">
+  <autoFilter ref="A1:M31" xr:uid="{4C75C92A-DDEB-9C4D-9474-4802BDBDDA18}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M31">
+    <sortCondition descending="1" ref="F1:F31"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{EE505864-B039-484A-83BF-9EAF2BA173A8}" name="Repo Promp"/>
+    <tableColumn id="2" xr3:uid="{C574E7DA-E2AB-4448-9974-BF727F26780D}" name="Data" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B59E6E3F-C45C-0F43-9C86-F491FC93AF8C}" name="01 Number Spiral"/>
+    <tableColumn id="5" xr3:uid="{E304E920-E842-D348-9730-DD0CEDDDC8A8}" name="02 Employee Salaries"/>
+    <tableColumn id="6" xr3:uid="{380D7AF8-23E7-B548-B432-D1FE5FD22BDB}" name="03 Working Hard"/>
+    <tableColumn id="7" xr3:uid="{71678DA0-001E-A84F-BEED-BA7ECC0DEB34}" name="05 Josephus Problem"/>
+    <tableColumn id="8" xr3:uid="{B1A5DAAB-7995-3643-83A5-36253D9C9D8F}" name="06 Expression Tree"/>
+    <tableColumn id="9" xr3:uid="{C5F72BE4-ACC4-A149-B58E-0D7127F49E95}" name="07 BST Cipher"/>
+    <tableColumn id="10" xr3:uid="{F469DC9B-72DB-744B-B53E-9D903AB884C6}" name="08 BST and VAL Tree"/>
+    <tableColumn id="11" xr3:uid="{83D0834D-4A96-7144-9F19-A6729F28678B}" name="09 Image Bucket Fill"/>
+    <tableColumn id="12" xr3:uid="{0970F045-A6CF-2348-80A4-3354E2922DAD}" name="10 Topological Sort"/>
+    <tableColumn id="14" xr3:uid="{0617716A-C690-2F4C-B824-E0B3FAF0BBC5}" name="Frequency per Search" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{C2E57CEF-0996-2744-8FAB-3650497C613A}" name="Repo Links"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0923A70-0CD4-1748-A2AC-6CF442382C53}" name="Table4" displayName="Table4" ref="A34:B39" totalsRowShown="0">
+  <autoFilter ref="A34:B39" xr:uid="{F0923A70-0CD4-1748-A2AC-6CF442382C53}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6ED633A2-013D-4945-90B5-E475E863600C}" name="Repo Promp"/>
+    <tableColumn id="2" xr3:uid="{19FE9177-DDCC-0A42-AD52-69033378410E}" name="Total repos"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2667,26 +3155,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C9F959-086B-3D41-BB93-140D9A02CCC4}">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="106" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="75" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.5" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2696,35 +3186,38 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2732,7 +3225,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>45330</v>
+        <v>45125</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2741,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2759,10 +3255,11 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>119</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>4</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2770,19 +3267,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>45253</v>
+        <v>45038</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2791,13 +3291,17 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>7</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2805,19 +3309,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>45187</v>
+        <v>44990</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2829,10 +3336,14 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2840,19 +3351,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>45191</v>
+        <v>44891</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2861,13 +3375,17 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>7</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2875,48 +3393,58 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>45169</v>
+        <v>44625</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>6</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>45051</v>
+        <v>45322</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2925,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2934,24 +3462,31 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>6</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>45038</v>
+        <v>45006</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2972,18 +3507,25 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>5</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>45125</v>
+        <v>44625</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2995,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3004,21 +3546,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>6</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>45160</v>
+        <v>44560</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3027,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -3039,30 +3588,37 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>5</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>45132</v>
+        <v>44444</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -3074,10 +3630,14 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>6</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -3085,13 +3645,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>45064</v>
+        <v>45330</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3100,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3109,10 +3672,14 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -3120,22 +3687,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>44923</v>
+        <v>45256</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3144,10 +3714,14 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -3155,7 +3729,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>44838</v>
+        <v>45187</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3170,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3182,7 +3759,11 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -3190,7 +3771,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>44836</v>
+        <v>45175</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3205,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3217,7 +3801,11 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -3225,16 +3813,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="1">
-        <v>44686</v>
+        <v>45169</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -3252,30 +3843,37 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>4</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>45322</v>
+        <v>45160</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3284,30 +3882,37 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>4</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>44926</v>
+        <v>45132</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3319,22 +3924,26 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>16</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>4</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
         <v>45064</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
@@ -3342,42 +3951,46 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>57</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>6</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
-        <v>45006</v>
+        <v>44838</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3386,10 +3999,10 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3398,15 +4011,22 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
-        <v>45005</v>
+        <v>44836</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3417,9 +4037,6 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -3433,7 +4050,11 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -3441,19 +4062,22 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>44951</v>
+        <v>45064</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3462,13 +4086,17 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>6</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -3476,10 +4104,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="1">
-        <v>44837</v>
+        <v>45005</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3503,7 +4134,11 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -3511,7 +4146,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="1">
-        <v>44824</v>
+        <v>44951</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3538,7 +4176,11 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -3546,7 +4188,10 @@
         <v>15</v>
       </c>
       <c r="B25" s="1">
-        <v>44624</v>
+        <v>44926</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3561,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3573,7 +4218,11 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -3581,25 +4230,28 @@
         <v>15</v>
       </c>
       <c r="B26" s="1">
-        <v>44625</v>
+        <v>44837</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3608,7 +4260,11 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -3616,10 +4272,13 @@
         <v>15</v>
       </c>
       <c r="B27" s="1">
-        <v>44560</v>
+        <v>44824</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3628,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3643,7 +4302,11 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -3651,7 +4314,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="1">
-        <v>44556</v>
+        <v>44624</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3663,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3678,7 +4344,11 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -3686,7 +4356,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="1">
-        <v>44493</v>
+        <v>44556</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3698,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3713,7 +4386,11 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -3721,7 +4398,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="1">
-        <v>44460</v>
+        <v>44524</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3748,7 +4428,11 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -3756,10 +4440,13 @@
         <v>15</v>
       </c>
       <c r="B31" s="1">
-        <v>44444</v>
+        <v>44460</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3783,293 +4470,163 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <f>SUM(Table3[[#This Row],[01 Number Spiral]:[10 Topological Sort]])</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>26</v>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>13</v>
+      <c r="A38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>13</v>
+      <c r="A39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>119</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43">
         <v>13</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M12" r:id="rId2" xr:uid="{051815A7-6D92-A144-B624-7705AC702B23}"/>
+    <hyperlink ref="M13" r:id="rId3" xr:uid="{4AB1E4F5-6656-E445-8474-04BEB806E840}"/>
+    <hyperlink ref="M14" r:id="rId4" xr:uid="{FBEC1A41-290A-7A41-97D6-7DA49B8442AF}"/>
+    <hyperlink ref="M16" r:id="rId5" xr:uid="{1B27DA68-F42D-6846-B095-BF0C4D6CBC26}"/>
+    <hyperlink ref="M17" r:id="rId6" xr:uid="{7F95CD79-2CCF-AC40-B297-698D811727CB}"/>
+    <hyperlink ref="M18" r:id="rId7" xr:uid="{8781068A-03C1-9540-AAD5-DBAE3131ED7B}"/>
+    <hyperlink ref="M2" r:id="rId8" xr:uid="{4CF2548E-9A07-9F41-8999-E7A1EC4FA3DD}"/>
+    <hyperlink ref="M19" r:id="rId9" xr:uid="{530604E5-6F26-2F46-81AA-864C75A127FB}"/>
+    <hyperlink ref="M22" r:id="rId10" xr:uid="{9A503736-E3CF-214C-846B-156E04D0921E}"/>
+    <hyperlink ref="M3" r:id="rId11" xr:uid="{D3EEB69F-0EB0-1943-B597-16428E553E0E}"/>
+    <hyperlink ref="M4" r:id="rId12" xr:uid="{0AAF7807-A788-5E44-AABB-DFEDD925AFAB}"/>
+    <hyperlink ref="M20" r:id="rId13" xr:uid="{2ABC3F7E-2D5E-3841-A20A-A4BDFC00A1B5}"/>
+    <hyperlink ref="M21" r:id="rId14" xr:uid="{FFD95FD0-CFD6-E14D-A614-E0146B4762D8}"/>
+    <hyperlink ref="M9" r:id="rId15" xr:uid="{677EE221-D3D5-9044-BFE4-6F0F238D0FEC}"/>
+    <hyperlink ref="M15" r:id="rId16" xr:uid="{EF0B5761-903A-C446-A708-3F7642F9FC1B}"/>
+    <hyperlink ref="M6" r:id="rId17" xr:uid="{6F06C554-205C-3A4B-B49F-7410001F1563}"/>
+    <hyperlink ref="M7" r:id="rId18" xr:uid="{3A51A6AF-9224-B64C-862F-D24734F2011F}"/>
+    <hyperlink ref="M8" r:id="rId19" xr:uid="{296FC60E-195A-1D40-9B22-2D15665D6762}"/>
+    <hyperlink ref="M23" r:id="rId20" xr:uid="{30C9AE62-4CF0-1F4E-AD98-C10F68A9A4E0}"/>
+    <hyperlink ref="M24" r:id="rId21" xr:uid="{BF201AB6-FD07-6A40-A996-D0A25F3191CE}"/>
+    <hyperlink ref="M25" r:id="rId22" xr:uid="{3D55C089-901E-C24F-9989-1117516333DA}"/>
+    <hyperlink ref="M26" r:id="rId23" xr:uid="{43E475B2-EBBA-9D47-ADED-9FC800D720CB}"/>
+    <hyperlink ref="M27" r:id="rId24" xr:uid="{4FAEBD84-87D2-9247-BFBB-F1E7481A7102}"/>
+    <hyperlink ref="M10" r:id="rId25" xr:uid="{01D8A130-50EE-2947-9D89-67EF51252BA5}"/>
+    <hyperlink ref="M29" r:id="rId26" xr:uid="{DCF96029-599C-5249-984A-6AB2FB0CC773}"/>
+    <hyperlink ref="M28" r:id="rId27" xr:uid="{574C5148-880D-A44D-8B37-76AD58A68A2B}"/>
+    <hyperlink ref="M30" r:id="rId28" xr:uid="{2338C9CF-3F7E-A84F-9CBE-4AB1203498F2}"/>
+    <hyperlink ref="M31" r:id="rId29" xr:uid="{DEB3356E-056C-D543-89DB-FFBDA0031411}"/>
+    <hyperlink ref="M11" r:id="rId30" xr:uid="{8092F718-9B8F-7948-B2E0-01B696D00987}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId31"/>
+  <tableParts count="2">
+    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Acedemic Dishonesty - GitHub/GitTest.xlsx
+++ b/Acedemic Dishonesty - GitHub/GitTest.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpichardo/Documents/GitHub/Research-Papers/Acedemic Dishonesty - GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpichardo/Desktop/Spring 24/UGCA Spring/Research UGCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE1D09C-9C38-B94F-9CE2-2972161BC99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42B7EC1-F4FF-E247-82EC-83D2B456570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="500" windowWidth="21640" windowHeight="16540" xr2:uid="{03CCA54B-6A87-BA4F-87B2-0800CDDB09CB}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16540" xr2:uid="{03CCA54B-6A87-BA4F-87B2-0800CDDB09CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1163,6 +1163,91 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1182,9 +1267,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.3108168562933017E-2"/>
-          <c:y val="3.6243335471309618E-2"/>
-          <c:w val="0.75059803772939104"/>
-          <c:h val="0.83761414413656476"/>
+          <c:y val="7.8884750422794359E-2"/>
+          <c:w val="0.85981624250098965"/>
+          <c:h val="0.79497280245037116"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2059,15 +2144,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>306307</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>91012</xdr:rowOff>
+      <xdr:colOff>601352</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>200401</xdr:rowOff>
+      <xdr:colOff>1067537</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>67696</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2167,15 +2252,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="Frequency per Search" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7" count="7">
-        <n v="2"/>
-        <n v="0"/>
-        <n v="4"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="5"/>
-        <n v="1"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
     </cacheField>
     <cacheField name="Repo Links" numFmtId="0">
       <sharedItems/>
@@ -2203,7 +2280,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="0"/>
+    <n v="2"/>
     <s v="https://github.com/joshc-garcia/CS313E-Assignments"/>
   </r>
   <r>
@@ -2218,7 +2295,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="0"/>
     <s v="https://github.com/lancefeig/cs313e_finalproject"/>
   </r>
   <r>
@@ -2233,7 +2310,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="0"/>
     <s v="https://github.com/pranavkpradeep/CS313E"/>
   </r>
   <r>
@@ -2248,7 +2325,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="0"/>
     <s v="https://github.com/uploadtigris/CS313E_Readings"/>
   </r>
   <r>
@@ -2263,7 +2340,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="2"/>
+    <n v="4"/>
     <s v="https://github.com/Minouneshan/CS313E-UTAustin"/>
   </r>
   <r>
@@ -2278,7 +2355,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
-    <x v="2"/>
+    <n v="4"/>
     <s v="https://github.com/halil-hamscho/CS313E"/>
   </r>
   <r>
@@ -2293,7 +2370,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
-    <x v="2"/>
+    <n v="4"/>
     <s v="https://github.com/sashi8a/CS313E"/>
   </r>
   <r>
@@ -2308,7 +2385,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="2"/>
+    <n v="4"/>
     <s v="https://github.com/austinjp17/cs313E"/>
   </r>
   <r>
@@ -2323,7 +2400,7 @@
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <x v="3"/>
+    <n v="6"/>
     <s v="https://github.com/raqmejtru/CS313E_Elements_of_Software_Design"/>
   </r>
   <r>
@@ -2338,7 +2415,7 @@
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <x v="4"/>
+    <n v="7"/>
     <s v="https://github.com/tylersmed/cs313"/>
   </r>
   <r>
@@ -2353,7 +2430,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
-    <x v="5"/>
+    <n v="5"/>
     <s v="https://github.com/Julian-Wearden-UT/Fall2021_CS313E_Projects"/>
   </r>
   <r>
@@ -2368,7 +2445,7 @@
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <x v="4"/>
+    <n v="7"/>
     <s v="https://github.com/makutexas/Fall22-CS313E-Assignments"/>
   </r>
   <r>
@@ -2383,7 +2460,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="6"/>
+    <n v="1"/>
     <s v="https://github.com/kellyhyun/cs313e"/>
   </r>
   <r>
@@ -2398,7 +2475,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="6"/>
+    <n v="1"/>
     <s v="https://github.com/ck27924/CS313E-Work"/>
   </r>
   <r>
@@ -2413,7 +2490,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
-    <x v="3"/>
+    <n v="6"/>
     <s v="https://github.com/enya126/Python-2---software-design"/>
   </r>
   <r>
@@ -2428,7 +2505,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
-    <x v="3"/>
+    <n v="6"/>
     <s v="https://github.com/morgan-handojo/CS-Work-Fall-2023"/>
   </r>
   <r>
@@ -2443,7 +2520,7 @@
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <x v="3"/>
+    <n v="6"/>
     <s v="https://github.com/raqmejtru/CS313E_Elements_of_Software_Design"/>
   </r>
   <r>
@@ -2458,7 +2535,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
-    <x v="5"/>
+    <n v="5"/>
     <s v="https://github.com/AmberEtana/Elements-of-Software-Design"/>
   </r>
   <r>
@@ -2473,7 +2550,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="6"/>
+    <n v="1"/>
     <s v="https://github.com/carlaigonzalez/CS313E"/>
   </r>
   <r>
@@ -2488,7 +2565,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="0"/>
     <s v="https://github.com/ankitasumeet17/CS313E-Elements-of-Software-Design"/>
   </r>
   <r>
@@ -2503,7 +2580,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="0"/>
     <s v="https://github.com/FelixLuciano/Elements-of-Software-Design"/>
   </r>
   <r>
@@ -2518,7 +2595,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="0"/>
     <s v="https://github.com/jpkrajewski/software-design-patterns"/>
   </r>
   <r>
@@ -2533,7 +2610,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="0"/>
     <s v="https://github.com/maxedout2/CS-313-Elements-of-Software-Design"/>
   </r>
   <r>
@@ -2548,7 +2625,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
-    <x v="3"/>
+    <n v="6"/>
     <s v="https://github.com/enya126/Python-2---software-design"/>
   </r>
   <r>
@@ -2563,7 +2640,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="6"/>
+    <n v="1"/>
     <s v="https://github.com/alicianireland/CS313E"/>
   </r>
   <r>
@@ -2578,7 +2655,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
-    <x v="5"/>
+    <n v="5"/>
     <s v="https://github.com/jenny-fotso/Elements-of-Software-Design"/>
   </r>
   <r>
@@ -2593,7 +2670,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="6"/>
+    <n v="1"/>
     <s v="https://github.com/ashlilii/CS313E"/>
   </r>
   <r>
@@ -2608,7 +2685,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="0"/>
     <s v="https://github.com/Hugo-cruz/design-patterns-python"/>
   </r>
   <r>
@@ -2623,7 +2700,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="0"/>
     <s v="https://github.com/pranj2000/Python-Programming-Projects"/>
   </r>
   <r>
@@ -2638,14 +2715,14 @@
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
-    <x v="3"/>
+    <n v="6"/>
     <s v="https://github.com/OCoderO/Elements-of-Software-Design---UT-Austin"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9BFA917-7D02-3041-A129-7EBB9380B1B5}" name="PivotTable2" cacheId="11" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9BFA917-7D02-3041-A129-7EBB9380B1B5}" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="C34:D43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
@@ -2665,18 +2742,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -2725,7 +2791,7 @@
     <dataField name="Sum of 09 Image Bucket Fill" fld="9" baseField="0" baseItem="0"/>
     <dataField name="Sum of 10 Topological Sort" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="9">
+  <chartFormats count="11">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -2803,6 +2869,24 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -3157,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C9F959-086B-3D41-BB93-140D9A02CCC4}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="75" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3166,7 +3250,7 @@
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
@@ -4035,6 +4119,9 @@
         <v>1</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
